--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2791.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2791.xlsx
@@ -354,7 +354,7 @@
         <v>2.435538386797654</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.36619658986764</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2791.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2791.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169393551449312</v>
+        <v>1.00793993473053</v>
       </c>
       <c r="B1">
-        <v>2.435538386797654</v>
+        <v>1.813161492347717</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.106608390808105</v>
       </c>
       <c r="D1">
-        <v>2.36619658986764</v>
+        <v>1.484330773353577</v>
       </c>
       <c r="E1">
-        <v>1.231777167774878</v>
+        <v>1.360289931297302</v>
       </c>
     </row>
   </sheetData>
